--- a/Sets-SATIMGE.xlsx
+++ b/Sets-SATIMGE.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7704067-6A14-4FA3-B74D-D6C19CFC3CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1876585-3163-4F29-970E-C5CD1D5ED001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1725" yWindow="-20040" windowWidth="29055" windowHeight="15240" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
+    <workbookView xWindow="180" yWindow="255" windowWidth="28350" windowHeight="15150" xr2:uid="{008F860A-1793-4F78-8899-BE3F7B7A437A}"/>
   </bookViews>
   <sheets>
     <sheet name="SetsEditor- Proc" sheetId="3" r:id="rId1"/>
     <sheet name="VEDA_Sets-Comm" sheetId="2" r:id="rId2"/>
-    <sheet name="VEDA_Sets-Proc" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,25 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="155">
-  <si>
-    <t>~TFM_Psets</t>
-  </si>
-  <si>
-    <t>PSET_SET</t>
-  </si>
-  <si>
-    <t>PSET_PN</t>
-  </si>
-  <si>
-    <t>PSET_PD</t>
-  </si>
-  <si>
-    <t>PSET_CI</t>
-  </si>
-  <si>
-    <t>PSET_CO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="245">
   <si>
     <t>SetName</t>
   </si>
@@ -85,9 +66,6 @@
     <t>CSET_CD</t>
   </si>
   <si>
-    <t>Electricity</t>
-  </si>
-  <si>
     <t>Fuels</t>
   </si>
   <si>
@@ -289,9 +267,6 @@
     <t>ELCC</t>
   </si>
   <si>
-    <t>Elec_Gen</t>
-  </si>
-  <si>
     <t>R*</t>
   </si>
   <si>
@@ -313,60 +288,24 @@
     <t>UREF*</t>
   </si>
   <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>RES</t>
-  </si>
-  <si>
-    <t>COM</t>
-  </si>
-  <si>
-    <t>TRA</t>
-  </si>
-  <si>
-    <t>AGR</t>
-  </si>
-  <si>
     <t>Agriculture</t>
   </si>
   <si>
     <t>A*</t>
   </si>
   <si>
-    <t>HGN</t>
-  </si>
-  <si>
     <t>Aggregate Level</t>
   </si>
   <si>
     <t>L1</t>
   </si>
   <si>
-    <t>SectorShort</t>
-  </si>
-  <si>
-    <t>SectorLong</t>
-  </si>
-  <si>
-    <t>ComShort</t>
-  </si>
-  <si>
-    <t>ComLong</t>
-  </si>
-  <si>
     <t>I*,-IISHALKHGNO</t>
   </si>
   <si>
     <t>U*,IIS*</t>
   </si>
   <si>
-    <t>REF</t>
-  </si>
-  <si>
-    <t>CTL</t>
-  </si>
-  <si>
     <t>Refineries</t>
   </si>
   <si>
@@ -376,133 +315,463 @@
     <t>Coal</t>
   </si>
   <si>
+    <t>Exports</t>
+  </si>
+  <si>
+    <t>PEX*</t>
+  </si>
+  <si>
+    <t>*COA*,*CLE*,*COK*</t>
+  </si>
+  <si>
+    <t>Imports</t>
+  </si>
+  <si>
+    <t>*ODS*,*OGS*,*OKE*,*OLP*,*OHF*</t>
+  </si>
+  <si>
+    <t>*HGN*</t>
+  </si>
+  <si>
+    <t>IMP*,UGAS*</t>
+  </si>
+  <si>
+    <t>*BIO*,*BIW*,*COA*, *CLE*,*OHF*,*OGS*,*ODS*,*OKE*,*OKG*,*GIC*,*GAS*,*HGN*</t>
+  </si>
+  <si>
+    <t>*GAS*,*GIC*,*GRL*</t>
+  </si>
+  <si>
+    <t>*OCR</t>
+  </si>
+  <si>
+    <t>OilProducts</t>
+  </si>
+  <si>
+    <t>NaturalGas</t>
+  </si>
+  <si>
+    <t>CrudeOil</t>
+  </si>
+  <si>
+    <t>*BI*</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>*SOL*</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>*WND*</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>*HYD*</t>
+  </si>
+  <si>
+    <t>Hydro</t>
+  </si>
+  <si>
+    <t>*NUC*</t>
+  </si>
+  <si>
+    <t>Nuclear</t>
+  </si>
+  <si>
+    <t>???ELC,-INDELC,ELC</t>
+  </si>
+  <si>
+    <t>REResource</t>
+  </si>
+  <si>
+    <t>MINSOL,MINWND,MINHYD,MINBI*,MINWAS</t>
+  </si>
+  <si>
+    <t>MINC*,MING*,MINO*</t>
+  </si>
+  <si>
+    <t>Dimension</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>UCTL*,UHET*,UGTL*</t>
+  </si>
+  <si>
+    <t>CrudeRefineries</t>
+  </si>
+  <si>
+    <t>Synfuels</t>
+  </si>
+  <si>
+    <t>E*,XRESELC,XAGRELC,XI*ELC,XU*ELC,XCOMELC,XTRAELC</t>
+  </si>
+  <si>
+    <t>UCTL*,UGTL*,UREF*,UHET*</t>
+  </si>
+  <si>
+    <t>ElectricityGen</t>
+  </si>
+  <si>
+    <t>ElectricityDist</t>
+  </si>
+  <si>
+    <t>ElectricitySector</t>
+  </si>
+  <si>
+    <t>HydrogenSector</t>
+  </si>
+  <si>
+    <t>Cooking</t>
+  </si>
+  <si>
+    <t>EndUse</t>
+  </si>
+  <si>
+    <t>Lighting</t>
+  </si>
+  <si>
+    <t>Non Energy</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Refrigeration</t>
+  </si>
+  <si>
+    <t>Space Heating</t>
+  </si>
+  <si>
+    <t>Water Heating</t>
+  </si>
+  <si>
+    <t>R??K*</t>
+  </si>
+  <si>
+    <t>R??L*</t>
+  </si>
+  <si>
+    <t>R??N*</t>
+  </si>
+  <si>
+    <t>R??O*</t>
+  </si>
+  <si>
+    <t>R??R*</t>
+  </si>
+  <si>
+    <t>R??H*</t>
+  </si>
+  <si>
+    <t>R??W*</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>LowIncome</t>
+  </si>
+  <si>
+    <t>HighIncome</t>
+  </si>
+  <si>
+    <t>MiddleIncome</t>
+  </si>
+  <si>
+    <t>SubSector</t>
+  </si>
+  <si>
+    <t>RL*</t>
+  </si>
+  <si>
+    <t>RM*</t>
+  </si>
+  <si>
+    <t>RH*</t>
+  </si>
+  <si>
+    <t>ElecDist</t>
+  </si>
+  <si>
+    <t>ElecTrans</t>
+  </si>
+  <si>
+    <t>ElecGenCentral</t>
+  </si>
+  <si>
+    <t>ElecGenDist</t>
+  </si>
+  <si>
+    <t>XRESELC,XAGRELC,XI*ELC,XU*ELC,XCOMELC,XTRAELC</t>
+  </si>
+  <si>
+    <t>E*,-ETRANS*</t>
+  </si>
+  <si>
     <t>E*</t>
   </si>
   <si>
-    <t>PWR</t>
-  </si>
-  <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>EXP</t>
-  </si>
-  <si>
-    <t>Exports</t>
-  </si>
-  <si>
-    <t>PEX*</t>
-  </si>
-  <si>
-    <t>UCTL*,UHET*</t>
-  </si>
-  <si>
-    <t>*COA*,*CLE*,*COK*</t>
-  </si>
-  <si>
-    <t>IMP</t>
-  </si>
-  <si>
-    <t>Imports</t>
-  </si>
-  <si>
-    <t>*ODS*,*OGS*,*OKE*,*OLP*,*OHF*</t>
-  </si>
-  <si>
-    <t>GTL</t>
-  </si>
-  <si>
-    <t>UGTL*</t>
-  </si>
-  <si>
-    <t>*HGN*</t>
-  </si>
-  <si>
-    <t>IMP*,UGAS*</t>
-  </si>
-  <si>
-    <t>*BIO*,*BIW*,*COA*, *CLE*,*OHF*,*OGS*,*ODS*,*OKE*,*OKG*,*GIC*,*GAS*,*HGN*</t>
-  </si>
-  <si>
-    <t>*GAS*,*GIC*,*GRL*</t>
-  </si>
-  <si>
-    <t>*OCR</t>
-  </si>
-  <si>
-    <t>OilProducts</t>
-  </si>
-  <si>
-    <t>NaturalGas</t>
-  </si>
-  <si>
-    <t>CrudeOil</t>
-  </si>
-  <si>
-    <t>*BI*</t>
-  </si>
-  <si>
-    <t>Biomass</t>
-  </si>
-  <si>
-    <t>*SOL*</t>
-  </si>
-  <si>
-    <t>Solar</t>
-  </si>
-  <si>
-    <t>*WND*</t>
-  </si>
-  <si>
-    <t>Wind</t>
-  </si>
-  <si>
-    <t>*HYD*</t>
-  </si>
-  <si>
-    <t>Hydro</t>
-  </si>
-  <si>
-    <t>*NUC*</t>
-  </si>
-  <si>
-    <t>Nuclear</t>
-  </si>
-  <si>
-    <t>Edist_All</t>
-  </si>
-  <si>
-    <t>XRESELC,XAGRELC,XI*ELC,XU*ELC,XCOMELC,XTRAELC</t>
-  </si>
-  <si>
-    <t>*ELC*,-INDELC</t>
-  </si>
-  <si>
-    <t>EnergyIndustries</t>
-  </si>
-  <si>
-    <t>UCTL*,UGTL*,UREF*,</t>
-  </si>
-  <si>
-    <t>UAL</t>
-  </si>
-  <si>
-    <t>???ELC,-INDELC,ELC</t>
-  </si>
-  <si>
-    <t>RER</t>
-  </si>
-  <si>
-    <t>REResource</t>
-  </si>
-  <si>
-    <t>MINSOL,MINWND,MINHYD,MINBI*,MINWAS</t>
-  </si>
-  <si>
-    <t>MINC*,MING*,MINO*</t>
+    <t>???ELC</t>
+  </si>
+  <si>
+    <t>FuelSupply</t>
+  </si>
+  <si>
+    <t>X*,-X*ELC,-XCHPELC,-XCO2*,-XGOKE,-XIPGM,-XNH3G,-X*DUM</t>
+  </si>
+  <si>
+    <t>RESELC</t>
+  </si>
+  <si>
+    <t>Res Elc</t>
+  </si>
+  <si>
+    <t>Res Coal</t>
+  </si>
+  <si>
+    <t>Res OilProducts</t>
+  </si>
+  <si>
+    <t>Res Gas</t>
+  </si>
+  <si>
+    <t>Res Biomass</t>
+  </si>
+  <si>
+    <t>RESCOA</t>
+  </si>
+  <si>
+    <t>RESODS*,RESOGS*,RESOKE*,RESOLP*,RESOHF*</t>
+  </si>
+  <si>
+    <t>RESGAS</t>
+  </si>
+  <si>
+    <t>RESBI*</t>
+  </si>
+  <si>
+    <t>RL?K*</t>
+  </si>
+  <si>
+    <t>RL?L*</t>
+  </si>
+  <si>
+    <t>RL?N*</t>
+  </si>
+  <si>
+    <t>RL?O*</t>
+  </si>
+  <si>
+    <t>RL?R*</t>
+  </si>
+  <si>
+    <t>RL?H*</t>
+  </si>
+  <si>
+    <t>RL?W*</t>
+  </si>
+  <si>
+    <t>SubSectorEndUse</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>RLCooking</t>
+  </si>
+  <si>
+    <t>RLLighting</t>
+  </si>
+  <si>
+    <t>RLNon Energy</t>
+  </si>
+  <si>
+    <t>RLOther</t>
+  </si>
+  <si>
+    <t>RLRefrigeration</t>
+  </si>
+  <si>
+    <t>RLSpace Heating</t>
+  </si>
+  <si>
+    <t>RLWater Heating</t>
+  </si>
+  <si>
+    <t>Residential Low Income Cooking</t>
+  </si>
+  <si>
+    <t>Residential Low Income Lighting</t>
+  </si>
+  <si>
+    <t>Residential Low Income Non Energy</t>
+  </si>
+  <si>
+    <t>Residential Low Income Other</t>
+  </si>
+  <si>
+    <t>Residential Low Income Refrigeration</t>
+  </si>
+  <si>
+    <t>Residential Low Income Space Heating</t>
+  </si>
+  <si>
+    <t>Residential Low Income Water Heating</t>
+  </si>
+  <si>
+    <t>Cooking dem</t>
+  </si>
+  <si>
+    <t>Lighting dem</t>
+  </si>
+  <si>
+    <t>Non Energy dem</t>
+  </si>
+  <si>
+    <t>Other dem</t>
+  </si>
+  <si>
+    <t>Refrigeration dem</t>
+  </si>
+  <si>
+    <t>Space Heating dem</t>
+  </si>
+  <si>
+    <t>Water Heating dem</t>
+  </si>
+  <si>
+    <t>RMCooking</t>
+  </si>
+  <si>
+    <t>RM?K*</t>
+  </si>
+  <si>
+    <t>RMLighting</t>
+  </si>
+  <si>
+    <t>RM?L*</t>
+  </si>
+  <si>
+    <t>RMNon Energy</t>
+  </si>
+  <si>
+    <t>RM?N*</t>
+  </si>
+  <si>
+    <t>RMOther</t>
+  </si>
+  <si>
+    <t>RM?O*</t>
+  </si>
+  <si>
+    <t>RMRefrigeration</t>
+  </si>
+  <si>
+    <t>RM?R*</t>
+  </si>
+  <si>
+    <t>RMSpace Heating</t>
+  </si>
+  <si>
+    <t>RM?H*</t>
+  </si>
+  <si>
+    <t>RMWater Heating</t>
+  </si>
+  <si>
+    <t>RM?W*</t>
+  </si>
+  <si>
+    <t>Residential Middle Income Cooking</t>
+  </si>
+  <si>
+    <t>Residential Middle Income Lighting</t>
+  </si>
+  <si>
+    <t>Residential Middle Income Non Energy</t>
+  </si>
+  <si>
+    <t>Residential Middle Income Other</t>
+  </si>
+  <si>
+    <t>Residential Middle Income Refrigeration</t>
+  </si>
+  <si>
+    <t>Residential Middle Income Space Heating</t>
+  </si>
+  <si>
+    <t>Residential Middle Income Water Heating</t>
+  </si>
+  <si>
+    <t>Residential High Income Cooking</t>
+  </si>
+  <si>
+    <t>Residential High Income Lighting</t>
+  </si>
+  <si>
+    <t>Residential High Income Non Energy</t>
+  </si>
+  <si>
+    <t>Residential High Income Other</t>
+  </si>
+  <si>
+    <t>Residential High Income Refrigeration</t>
+  </si>
+  <si>
+    <t>Residential High Income Space Heating</t>
+  </si>
+  <si>
+    <t>Residential High Income Water Heating</t>
+  </si>
+  <si>
+    <t>RHCooking</t>
+  </si>
+  <si>
+    <t>RH?K*</t>
+  </si>
+  <si>
+    <t>RHLighting</t>
+  </si>
+  <si>
+    <t>RH?L*</t>
+  </si>
+  <si>
+    <t>RHNon Energy</t>
+  </si>
+  <si>
+    <t>RH?N*</t>
+  </si>
+  <si>
+    <t>RHOther</t>
+  </si>
+  <si>
+    <t>RH?O*</t>
+  </si>
+  <si>
+    <t>RHRefrigeration</t>
+  </si>
+  <si>
+    <t>RH?R*</t>
+  </si>
+  <si>
+    <t>RHSpace Heating</t>
+  </si>
+  <si>
+    <t>RH?H*</t>
+  </si>
+  <si>
+    <t>RHWater Heating</t>
+  </si>
+  <si>
+    <t>RH?W*</t>
   </si>
 </sst>
 </file>
@@ -861,13 +1130,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263D98BE-72FA-4B80-B173-2E4676308DDA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:N84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M16" sqref="M16:M18"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,574 +1146,1138 @@
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" customWidth="1"/>
     <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="48.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="M2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" t="s">
+        <v>121</v>
+      </c>
+      <c r="M9" t="s">
+        <v>86</v>
+      </c>
+      <c r="N9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" t="s">
+        <v>86</v>
+      </c>
+      <c r="N10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" t="s">
+        <v>97</v>
+      </c>
+      <c r="M11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" t="s">
+        <v>98</v>
+      </c>
+      <c r="M12" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" t="s">
+        <v>86</v>
+      </c>
+      <c r="N13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" t="s">
-        <v>99</v>
-      </c>
-      <c r="N2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O2" t="s">
-        <v>102</v>
-      </c>
-      <c r="P2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H3" t="s">
-        <v>97</v>
-      </c>
-      <c r="M3" t="s">
-        <v>100</v>
-      </c>
-      <c r="N3" t="s">
-        <v>95</v>
-      </c>
-      <c r="O3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" t="s">
-        <v>85</v>
-      </c>
-      <c r="M4" t="s">
-        <v>100</v>
-      </c>
-      <c r="N4" t="s">
-        <v>93</v>
-      </c>
-      <c r="O4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" t="s">
-        <v>105</v>
-      </c>
-      <c r="M5" t="s">
-        <v>100</v>
-      </c>
-      <c r="N5" t="s">
-        <v>91</v>
-      </c>
-      <c r="O5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" t="s">
-        <v>100</v>
-      </c>
-      <c r="N6" t="s">
-        <v>92</v>
-      </c>
-      <c r="O6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M7" t="s">
-        <v>100</v>
-      </c>
-      <c r="N7" t="s">
-        <v>94</v>
-      </c>
-      <c r="O7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" t="s">
-        <v>109</v>
-      </c>
-      <c r="H8" t="s">
-        <v>90</v>
-      </c>
-      <c r="M8" t="s">
-        <v>100</v>
-      </c>
-      <c r="N8" t="s">
-        <v>107</v>
-      </c>
-      <c r="O8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H9" t="s">
-        <v>119</v>
-      </c>
-      <c r="M9" t="s">
-        <v>100</v>
-      </c>
-      <c r="N9" t="s">
-        <v>108</v>
-      </c>
-      <c r="O9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F10" t="s">
-        <v>124</v>
-      </c>
-      <c r="H10" t="s">
-        <v>125</v>
-      </c>
-      <c r="M10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" t="s">
-        <v>114</v>
-      </c>
-      <c r="H11" t="s">
-        <v>112</v>
-      </c>
-      <c r="M11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" t="s">
-        <v>110</v>
-      </c>
-      <c r="H12" t="s">
-        <v>106</v>
-      </c>
-      <c r="J12" t="s">
-        <v>126</v>
-      </c>
-      <c r="M12" t="s">
-        <v>100</v>
-      </c>
-      <c r="N12" t="s">
-        <v>98</v>
-      </c>
-      <c r="O12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F13" t="s">
-        <v>122</v>
-      </c>
-      <c r="H13" t="s">
-        <v>127</v>
-      </c>
-      <c r="M13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>116</v>
-      </c>
       <c r="F14" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="H14" t="s">
         <v>118</v>
       </c>
       <c r="M14" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="N14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
         <v>116</v>
       </c>
-      <c r="O14" t="s">
+      <c r="F15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>115</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="M15" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" t="s">
+        <v>125</v>
+      </c>
+      <c r="M16" t="s">
+        <v>86</v>
+      </c>
+      <c r="N16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" t="s">
+        <v>161</v>
+      </c>
+      <c r="H17" t="s">
+        <v>162</v>
+      </c>
+      <c r="M17" t="s">
+        <v>86</v>
+      </c>
+      <c r="N17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" t="s">
+        <v>153</v>
+      </c>
+      <c r="H18" t="s">
+        <v>157</v>
+      </c>
+      <c r="M18" t="s">
+        <v>145</v>
+      </c>
+      <c r="N18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
         <v>154</v>
       </c>
-      <c r="M15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
+      <c r="F19" t="s">
+        <v>154</v>
+      </c>
+      <c r="H19" t="s">
+        <v>53</v>
+      </c>
+      <c r="M19" t="s">
+        <v>145</v>
+      </c>
+      <c r="N19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" t="s">
+        <v>155</v>
+      </c>
+      <c r="H20" t="s">
+        <v>158</v>
+      </c>
+      <c r="J20" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" t="s">
+        <v>145</v>
+      </c>
+      <c r="N20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" t="s">
+        <v>156</v>
+      </c>
+      <c r="H21" t="s">
+        <v>159</v>
+      </c>
+      <c r="J21" t="s">
+        <v>160</v>
+      </c>
+      <c r="M21" t="s">
+        <v>145</v>
+      </c>
+      <c r="N21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" t="s">
+        <v>138</v>
+      </c>
+      <c r="M22" t="s">
+        <v>145</v>
+      </c>
+      <c r="N22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" t="s">
+        <v>132</v>
+      </c>
+      <c r="H23" t="s">
+        <v>139</v>
+      </c>
+      <c r="M23" t="s">
+        <v>145</v>
+      </c>
+      <c r="N23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" t="s">
+        <v>140</v>
+      </c>
+      <c r="M24" t="s">
+        <v>145</v>
+      </c>
+      <c r="N24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" t="s">
+        <v>134</v>
+      </c>
+      <c r="H25" t="s">
+        <v>141</v>
+      </c>
+      <c r="M25" t="s">
+        <v>145</v>
+      </c>
+      <c r="N25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" t="s">
+        <v>142</v>
+      </c>
+      <c r="M26" t="s">
+        <v>145</v>
+      </c>
+      <c r="N26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" t="s">
+        <v>136</v>
+      </c>
+      <c r="H27" t="s">
+        <v>143</v>
+      </c>
+      <c r="M27" t="s">
+        <v>145</v>
+      </c>
+      <c r="N27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H28" t="s">
+        <v>144</v>
+      </c>
+      <c r="M28" t="s">
+        <v>145</v>
+      </c>
+      <c r="N28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" t="s">
+        <v>146</v>
+      </c>
+      <c r="H29" t="s">
+        <v>150</v>
+      </c>
+      <c r="M29" t="s">
+        <v>145</v>
+      </c>
+      <c r="N29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" t="s">
+        <v>147</v>
+      </c>
+      <c r="H30" t="s">
+        <v>152</v>
+      </c>
+      <c r="M30" t="s">
+        <v>145</v>
+      </c>
+      <c r="N30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F31" t="s">
+        <v>148</v>
+      </c>
+      <c r="H31" t="s">
         <v>151</v>
       </c>
-      <c r="F16" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" t="s">
-        <v>153</v>
-      </c>
-      <c r="M16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
-        <v>144</v>
-      </c>
-      <c r="F17" t="s">
-        <v>144</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="M31" t="s">
         <v>145</v>
       </c>
-      <c r="J17" t="s">
-        <v>146</v>
-      </c>
-      <c r="M17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
+      <c r="N31" t="s">
         <v>149</v>
       </c>
-      <c r="F18" t="s">
-        <v>147</v>
-      </c>
-      <c r="H18" t="s">
-        <v>148</v>
-      </c>
-      <c r="M18" t="s">
-        <v>100</v>
+    </row>
+    <row r="32" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>182</v>
+      </c>
+      <c r="F32" t="s">
+        <v>189</v>
+      </c>
+      <c r="H32" t="s">
+        <v>173</v>
+      </c>
+      <c r="M32" t="s">
+        <v>181</v>
+      </c>
+      <c r="N32" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>183</v>
+      </c>
+      <c r="F33" t="s">
+        <v>190</v>
+      </c>
+      <c r="H33" t="s">
+        <v>174</v>
+      </c>
+      <c r="M33" t="s">
+        <v>181</v>
+      </c>
+      <c r="N33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>184</v>
+      </c>
+      <c r="F34" t="s">
+        <v>191</v>
+      </c>
+      <c r="H34" t="s">
+        <v>175</v>
+      </c>
+      <c r="M34" t="s">
+        <v>181</v>
+      </c>
+      <c r="N34" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>185</v>
+      </c>
+      <c r="F35" t="s">
+        <v>192</v>
+      </c>
+      <c r="H35" t="s">
+        <v>176</v>
+      </c>
+      <c r="M35" t="s">
+        <v>181</v>
+      </c>
+      <c r="N35" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>186</v>
+      </c>
+      <c r="F36" t="s">
+        <v>193</v>
+      </c>
+      <c r="H36" t="s">
+        <v>177</v>
+      </c>
+      <c r="M36" t="s">
+        <v>181</v>
+      </c>
+      <c r="N36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>187</v>
+      </c>
+      <c r="F37" t="s">
+        <v>194</v>
+      </c>
+      <c r="H37" t="s">
+        <v>178</v>
+      </c>
+      <c r="M37" t="s">
+        <v>181</v>
+      </c>
+      <c r="N37" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>188</v>
+      </c>
+      <c r="F38" t="s">
+        <v>195</v>
+      </c>
+      <c r="H38" t="s">
+        <v>179</v>
+      </c>
+      <c r="M38" t="s">
+        <v>181</v>
+      </c>
+      <c r="N38" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>203</v>
+      </c>
+      <c r="F39" t="s">
+        <v>217</v>
+      </c>
+      <c r="H39" t="s">
+        <v>204</v>
+      </c>
+      <c r="M39" t="s">
+        <v>181</v>
+      </c>
+      <c r="N39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>205</v>
+      </c>
+      <c r="F40" t="s">
+        <v>218</v>
+      </c>
+      <c r="H40" t="s">
+        <v>206</v>
+      </c>
+      <c r="M40" t="s">
+        <v>181</v>
+      </c>
+      <c r="N40" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>207</v>
+      </c>
+      <c r="F41" t="s">
+        <v>219</v>
+      </c>
+      <c r="H41" t="s">
+        <v>208</v>
+      </c>
+      <c r="M41" t="s">
+        <v>181</v>
+      </c>
+      <c r="N41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>209</v>
+      </c>
+      <c r="F42" t="s">
+        <v>220</v>
+      </c>
+      <c r="H42" t="s">
+        <v>210</v>
+      </c>
+      <c r="M42" t="s">
+        <v>181</v>
+      </c>
+      <c r="N42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>211</v>
+      </c>
+      <c r="F43" t="s">
+        <v>221</v>
+      </c>
+      <c r="H43" t="s">
+        <v>212</v>
+      </c>
+      <c r="M43" t="s">
+        <v>181</v>
+      </c>
+      <c r="N43" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>213</v>
+      </c>
+      <c r="F44" t="s">
+        <v>222</v>
+      </c>
+      <c r="H44" t="s">
+        <v>214</v>
+      </c>
+      <c r="M44" t="s">
+        <v>181</v>
+      </c>
+      <c r="N44" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>215</v>
+      </c>
+      <c r="F45" t="s">
+        <v>223</v>
+      </c>
+      <c r="H45" t="s">
+        <v>216</v>
+      </c>
+      <c r="M45" t="s">
+        <v>181</v>
+      </c>
+      <c r="N45" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>231</v>
+      </c>
+      <c r="F46" t="s">
+        <v>224</v>
+      </c>
+      <c r="H46" t="s">
+        <v>232</v>
+      </c>
+      <c r="M46" t="s">
+        <v>181</v>
+      </c>
+      <c r="N46" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>233</v>
+      </c>
+      <c r="F47" t="s">
+        <v>225</v>
+      </c>
+      <c r="H47" t="s">
+        <v>234</v>
+      </c>
+      <c r="M47" t="s">
+        <v>181</v>
+      </c>
+      <c r="N47" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>235</v>
+      </c>
+      <c r="F48" t="s">
+        <v>226</v>
+      </c>
+      <c r="H48" t="s">
+        <v>236</v>
+      </c>
+      <c r="M48" t="s">
+        <v>181</v>
+      </c>
+      <c r="N48" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>237</v>
+      </c>
+      <c r="F49" t="s">
+        <v>227</v>
+      </c>
+      <c r="H49" t="s">
+        <v>238</v>
+      </c>
+      <c r="M49" t="s">
+        <v>181</v>
+      </c>
+      <c r="N49" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>239</v>
+      </c>
+      <c r="F50" t="s">
+        <v>228</v>
+      </c>
+      <c r="H50" t="s">
+        <v>240</v>
+      </c>
+      <c r="M50" t="s">
+        <v>181</v>
+      </c>
+      <c r="N50" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>241</v>
+      </c>
+      <c r="F51" t="s">
+        <v>229</v>
+      </c>
+      <c r="H51" t="s">
+        <v>242</v>
+      </c>
+      <c r="M51" t="s">
+        <v>181</v>
+      </c>
+      <c r="N51" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>243</v>
+      </c>
+      <c r="F52" t="s">
+        <v>230</v>
+      </c>
+      <c r="H52" t="s">
+        <v>244</v>
+      </c>
+      <c r="M52" t="s">
+        <v>181</v>
+      </c>
+      <c r="N52" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" t="s">
+        <v>24</v>
+      </c>
+      <c r="H65" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H67" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H68" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H69" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="H70" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="F71" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="H71" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H72" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="H73" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F74" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H74" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F75" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="H75" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="F76" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="H76" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H77" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H78" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F79" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H79" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E80" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F80" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H80" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="81" spans="5:14" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H81" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="82" spans="5:14" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E82" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F82" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H82" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="83" spans="5:14" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F83" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H83" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="84" spans="5:14" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F84" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H84" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="85" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E85" t="s">
-        <v>46</v>
-      </c>
-      <c r="F85" t="s">
-        <v>46</v>
-      </c>
-      <c r="H85" t="s">
-        <v>65</v>
-      </c>
-      <c r="N85" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1457,10 +2290,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD03DB1-DD55-4548-B86E-1F92E13CF8ED}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,300 +2310,457 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>64</v>
+      </c>
+      <c r="H3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>69</v>
+      </c>
+      <c r="H5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
         <v>72</v>
       </c>
-      <c r="B6" t="s">
-        <v>79</v>
-      </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="H6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>73</v>
+      </c>
+      <c r="H7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>126</v>
+      </c>
+      <c r="H9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>127</v>
+      </c>
+      <c r="H10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>91</v>
+      </c>
+      <c r="H11" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>102</v>
+      </c>
+      <c r="H12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>132</v>
+        <v>103</v>
+      </c>
+      <c r="H13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>133</v>
+        <v>104</v>
+      </c>
+      <c r="H14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>90</v>
+      </c>
+      <c r="H15" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="H16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="H17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" t="s">
+        <v>164</v>
+      </c>
+      <c r="H21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" t="s">
+        <v>165</v>
+      </c>
+      <c r="H22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" t="s">
+        <v>166</v>
+      </c>
+      <c r="H23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" t="s">
+        <v>167</v>
+      </c>
+      <c r="H24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" t="s">
+        <v>168</v>
+      </c>
+      <c r="H25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
         <v>138</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D26" t="s">
+        <v>196</v>
+      </c>
+      <c r="H26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="D27" t="s">
+        <v>197</v>
+      </c>
+      <c r="H27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
         <v>140</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D28" t="s">
+        <v>198</v>
+      </c>
+      <c r="H28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="D29" t="s">
+        <v>199</v>
+      </c>
+      <c r="H29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
         <v>142</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D30" t="s">
+        <v>200</v>
+      </c>
+      <c r="H30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
         <v>143</v>
       </c>
+      <c r="D31" t="s">
+        <v>201</v>
+      </c>
+      <c r="H31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" t="s">
+        <v>202</v>
+      </c>
+      <c r="H32" t="s">
+        <v>145</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06336B7-5D6A-48EE-B122-F085391548AD}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>